--- a/rfStuff/yagiCalc.xlsx
+++ b/rfStuff/yagiCalc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6elyagi14412.5ohm" sheetId="1" r:id="rId1"/>
@@ -374,9 +374,9 @@
       <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1030</v>
       </c>
@@ -396,7 +396,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1/2</f>
         <v>515</v>
@@ -422,7 +422,7 @@
         <v>450.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-215</v>
       </c>
@@ -466,7 +466,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>331</v>
       </c>
@@ -475,52 +475,52 @@
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>SUM(A8:A17)</f>
         <v>2941</v>
@@ -539,14 +539,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1028</v>
       </c>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5/2</f>
         <v>514</v>
@@ -595,7 +595,7 @@
         <v>446.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -625,20 +625,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1018</v>
       </c>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5/2</f>
         <v>509</v>
@@ -687,7 +687,7 @@
         <v>444.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -707,12 +707,34 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>B8-A8</f>
+        <v>280</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:F9" si="1">C8-B8</f>
+        <v>135</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1048</v>
       </c>
@@ -740,7 +762,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -764,18 +786,64 @@
         <v>1895</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I14" si="1">2500-H13</f>
+        <f t="shared" ref="I13:I14" si="2">2500-H13</f>
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>B13-A13</f>
+        <v>317.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="3">C13-B13</f>
+        <v>95.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>611</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>620</v>
+      </c>
       <c r="H14">
         <f>E12+F12</f>
         <v>1809</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>A12/2</f>
+        <v>524</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:F15" si="4">B12/2</f>
+        <v>512.5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>479.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>468</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>462.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/rfStuff/yagiCalc.xlsx
+++ b/rfStuff/yagiCalc.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12096" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6elyagi14412.5ohm" sheetId="1" r:id="rId1"/>
     <sheet name="6el-yagi144-12,5ohm-phi8" sheetId="2" r:id="rId2"/>
     <sheet name="6el-yagi144-50ohm-phi8" sheetId="3" r:id="rId3"/>
+    <sheet name="10el-yagi435-28ohm-phi8" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>phi8</t>
   </si>
@@ -38,6 +39,12 @@
   </si>
   <si>
     <t>After opti</t>
+  </si>
+  <si>
+    <t>Element length</t>
+  </si>
+  <si>
+    <t>Element position</t>
   </si>
 </sst>
 </file>
@@ -627,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,4 +859,92 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>330</v>
+      </c>
+      <c r="C2">
+        <v>314</v>
+      </c>
+      <c r="D2">
+        <v>302</v>
+      </c>
+      <c r="E2">
+        <v>291</v>
+      </c>
+      <c r="F2">
+        <v>285</v>
+      </c>
+      <c r="G2">
+        <v>277</v>
+      </c>
+      <c r="H2">
+        <v>274</v>
+      </c>
+      <c r="I2">
+        <v>274</v>
+      </c>
+      <c r="J2">
+        <v>279</v>
+      </c>
+      <c r="K2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>140</v>
+      </c>
+      <c r="D3">
+        <v>235</v>
+      </c>
+      <c r="E3">
+        <v>425</v>
+      </c>
+      <c r="F3">
+        <v>650</v>
+      </c>
+      <c r="G3">
+        <v>920</v>
+      </c>
+      <c r="H3">
+        <v>1205</v>
+      </c>
+      <c r="I3">
+        <v>1495</v>
+      </c>
+      <c r="J3">
+        <v>1780</v>
+      </c>
+      <c r="K3">
+        <v>1995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rfStuff/yagiCalc.xlsx
+++ b/rfStuff/yagiCalc.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12096" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12096" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6elyagi14412.5ohm" sheetId="1" r:id="rId1"/>
     <sheet name="6el-yagi144-12,5ohm-phi8" sheetId="2" r:id="rId2"/>
     <sheet name="6el-yagi144-50ohm-phi8" sheetId="3" r:id="rId3"/>
     <sheet name="10el-yagi435-28ohm-phi8" sheetId="4" r:id="rId4"/>
+    <sheet name="4el-yagi435-50ohm-phi8" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>phi8</t>
   </si>
@@ -45,13 +46,40 @@
   </si>
   <si>
     <t>Element position</t>
+  </si>
+  <si>
+    <t>Reflector               13.46             -----</t>
+  </si>
+  <si>
+    <t>Driver                  12.32              5.94</t>
+  </si>
+  <si>
+    <t>Director 1              11.10              9.72</t>
+  </si>
+  <si>
+    <t>Director 2              10.79             16.18</t>
+  </si>
+  <si>
+    <t>Director 3              10.20             24.94</t>
+  </si>
+  <si>
+    <t>Director 4               9.80             33.94</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>http://on5au.be/content/a10/vhf/f432.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +96,13 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,9 +126,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -865,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,4 +985,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>3.9370000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>13.46</v>
+      </c>
+      <c r="D9">
+        <v>12.32</v>
+      </c>
+      <c r="E9">
+        <v>11.1</v>
+      </c>
+      <c r="F9">
+        <v>10.79</v>
+      </c>
+      <c r="G9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5.94</v>
+      </c>
+      <c r="E10">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F10">
+        <v>16.18</v>
+      </c>
+      <c r="G10">
+        <v>24.94</v>
+      </c>
+      <c r="H10">
+        <v>33.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f>C9/$H$1</f>
+        <v>341.88468376936754</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:H12" si="0">D9/$H$1</f>
+        <v>312.92862585725169</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>281.94056388112773</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>274.06654813309621</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>259.08051816103631</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>248.92049784099569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f>C10/$H$1</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:H13" si="1">D10/$H$1</f>
+        <v>150.8763017526035</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>246.88849377698756</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>410.97282194564389</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>633.47726695453389</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>862.07772415544821</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/rfStuff/yagiCalc.xlsx
+++ b/rfStuff/yagiCalc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12096" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12096" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6elyagi14412.5ohm" sheetId="1" r:id="rId1"/>
@@ -901,15 +901,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K3"/>
+  <dimension ref="A2:K11"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -980,6 +981,40 @@
       </c>
       <c r="K3">
         <v>1995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f>314/2 - 5</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>300000000/435000000/2 * 1000/2 - 5</f>
+        <v>167.41379310344828</v>
+      </c>
+      <c r="D6">
+        <f>(C6+5)*2</f>
+        <v>344.82758620689657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>C6-C5</f>
+        <v>15.413793103448285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f>328/2 - 5</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f>300000000/0.16/4</f>
+        <v>468750000</v>
       </c>
     </row>
   </sheetData>
@@ -991,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
